--- a/inputs/new_observation/check_setting_parametres.xlsx
+++ b/inputs/new_observation/check_setting_parametres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beyzasenol/Desktop/norm-changes-emergence/inputs/new_observation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345C31DC-2EFD-D24E-9F67-4D9B4779D8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBF55A6-7EE1-0C41-B959-82A5CC51CE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16060" xr2:uid="{C8C20FCD-CCBE-9444-AA9C-8D92D1E8947F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="20">
   <si>
     <t>num_agents</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>[1]</t>
   </si>
 </sst>
 </file>
@@ -496,7 +499,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -547,6 +550,9 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
       <c r="E2">
         <v>1</v>
       </c>
@@ -576,6 +582,9 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
       <c r="E3">
         <v>1</v>
       </c>
@@ -605,6 +614,9 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
       <c r="E4">
         <v>1</v>
       </c>
@@ -634,6 +646,9 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
       <c r="E5">
         <v>2</v>
       </c>
@@ -663,6 +678,9 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
       <c r="E6">
         <v>2</v>
       </c>
@@ -692,6 +710,9 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
       <c r="E7">
         <v>2</v>
       </c>
@@ -721,6 +742,9 @@
       <c r="C8" t="s">
         <v>10</v>
       </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
       <c r="E8">
         <v>4</v>
       </c>
@@ -750,6 +774,9 @@
       <c r="C9" t="s">
         <v>10</v>
       </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
       <c r="E9">
         <v>4</v>
       </c>
@@ -779,6 +806,9 @@
       <c r="C10" t="s">
         <v>10</v>
       </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
       <c r="E10">
         <v>4</v>
       </c>
@@ -808,6 +838,9 @@
       <c r="C11" t="s">
         <v>11</v>
       </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
       <c r="E11">
         <v>1</v>
       </c>
@@ -837,6 +870,9 @@
       <c r="C12" t="s">
         <v>11</v>
       </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
       <c r="E12">
         <v>1</v>
       </c>
@@ -866,6 +902,9 @@
       <c r="C13" t="s">
         <v>11</v>
       </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
       <c r="E13">
         <v>1</v>
       </c>
@@ -895,6 +934,9 @@
       <c r="C14" t="s">
         <v>11</v>
       </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
       <c r="E14">
         <v>2</v>
       </c>
@@ -924,6 +966,9 @@
       <c r="C15" t="s">
         <v>11</v>
       </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
       <c r="E15">
         <v>2</v>
       </c>
@@ -953,6 +998,9 @@
       <c r="C16" t="s">
         <v>11</v>
       </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
       <c r="E16">
         <v>2</v>
       </c>
@@ -982,6 +1030,9 @@
       <c r="C17" t="s">
         <v>11</v>
       </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
       <c r="E17">
         <v>4</v>
       </c>
@@ -1011,6 +1062,9 @@
       <c r="C18" t="s">
         <v>11</v>
       </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
       <c r="E18">
         <v>4</v>
       </c>
@@ -1040,6 +1094,9 @@
       <c r="C19" t="s">
         <v>11</v>
       </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
       <c r="E19">
         <v>4</v>
       </c>
@@ -1069,6 +1126,9 @@
       <c r="C20" t="s">
         <v>12</v>
       </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
       <c r="E20">
         <v>1</v>
       </c>
@@ -1098,6 +1158,9 @@
       <c r="C21" t="s">
         <v>12</v>
       </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
       <c r="E21">
         <v>1</v>
       </c>
@@ -1127,6 +1190,9 @@
       <c r="C22" t="s">
         <v>12</v>
       </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
       <c r="E22">
         <v>1</v>
       </c>
@@ -1156,6 +1222,9 @@
       <c r="C23" t="s">
         <v>12</v>
       </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
       <c r="E23">
         <v>2</v>
       </c>
@@ -1185,6 +1254,9 @@
       <c r="C24" t="s">
         <v>12</v>
       </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
       <c r="E24">
         <v>2</v>
       </c>
@@ -1214,6 +1286,9 @@
       <c r="C25" t="s">
         <v>12</v>
       </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
       <c r="E25">
         <v>2</v>
       </c>
@@ -1243,6 +1318,9 @@
       <c r="C26" t="s">
         <v>12</v>
       </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
       <c r="E26">
         <v>4</v>
       </c>
@@ -1272,6 +1350,9 @@
       <c r="C27" t="s">
         <v>12</v>
       </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
       <c r="E27">
         <v>4</v>
       </c>
@@ -1300,6 +1381,9 @@
       </c>
       <c r="C28" t="s">
         <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
       </c>
       <c r="E28">
         <v>4</v>

--- a/inputs/new_observation/check_setting_parametres.xlsx
+++ b/inputs/new_observation/check_setting_parametres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beyzasenol/Desktop/norm-changes-emergence/inputs/new_observation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBF55A6-7EE1-0C41-B959-82A5CC51CE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DBF140-D291-E34B-B78A-E9595A2797E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16060" xr2:uid="{C8C20FCD-CCBE-9444-AA9C-8D92D1E8947F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="17">
   <si>
     <t>num_agents</t>
   </si>
@@ -84,15 +84,6 @@
   </si>
   <si>
     <t>by closeness</t>
-  </si>
-  <si>
-    <t>yes/no</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
   <si>
     <t>[1]</t>
@@ -499,7 +490,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -536,9 +527,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
@@ -551,7 +540,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -568,9 +557,6 @@
       <c r="I2">
         <v>5</v>
       </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -583,7 +569,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -600,9 +586,6 @@
       <c r="I3">
         <v>5</v>
       </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -615,7 +598,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -632,9 +615,6 @@
       <c r="I4">
         <v>5</v>
       </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -647,7 +627,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -664,9 +644,6 @@
       <c r="I5">
         <v>5</v>
       </c>
-      <c r="J5" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -679,7 +656,7 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -696,9 +673,6 @@
       <c r="I6">
         <v>5</v>
       </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -711,7 +685,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -728,9 +702,6 @@
       <c r="I7">
         <v>5</v>
       </c>
-      <c r="J7" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -743,7 +714,7 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -760,9 +731,6 @@
       <c r="I8">
         <v>5</v>
       </c>
-      <c r="J8" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -775,7 +743,7 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -792,9 +760,6 @@
       <c r="I9">
         <v>5</v>
       </c>
-      <c r="J9" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -807,7 +772,7 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -824,9 +789,6 @@
       <c r="I10">
         <v>5</v>
       </c>
-      <c r="J10" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -839,7 +801,7 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -856,9 +818,6 @@
       <c r="I11">
         <v>5</v>
       </c>
-      <c r="J11" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -871,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -888,9 +847,6 @@
       <c r="I12">
         <v>5</v>
       </c>
-      <c r="J12" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -903,7 +859,7 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -920,9 +876,6 @@
       <c r="I13">
         <v>5</v>
       </c>
-      <c r="J13" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -935,7 +888,7 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -952,9 +905,6 @@
       <c r="I14">
         <v>5</v>
       </c>
-      <c r="J14" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -967,7 +917,7 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -984,9 +934,6 @@
       <c r="I15">
         <v>5</v>
       </c>
-      <c r="J15" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -999,7 +946,7 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1016,11 +963,8 @@
       <c r="I16">
         <v>5</v>
       </c>
-      <c r="J16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>100</v>
       </c>
@@ -1031,7 +975,7 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -1048,11 +992,8 @@
       <c r="I17">
         <v>5</v>
       </c>
-      <c r="J17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>100</v>
       </c>
@@ -1063,7 +1004,7 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>4</v>
@@ -1080,11 +1021,8 @@
       <c r="I18">
         <v>5</v>
       </c>
-      <c r="J18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>100</v>
       </c>
@@ -1095,7 +1033,7 @@
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -1112,11 +1050,8 @@
       <c r="I19">
         <v>5</v>
       </c>
-      <c r="J19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>100</v>
       </c>
@@ -1127,7 +1062,7 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1144,11 +1079,8 @@
       <c r="I20">
         <v>5</v>
       </c>
-      <c r="J20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>100</v>
       </c>
@@ -1159,7 +1091,7 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1176,11 +1108,8 @@
       <c r="I21">
         <v>5</v>
       </c>
-      <c r="J21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>100</v>
       </c>
@@ -1191,7 +1120,7 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1208,11 +1137,8 @@
       <c r="I22">
         <v>5</v>
       </c>
-      <c r="J22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>100</v>
       </c>
@@ -1223,7 +1149,7 @@
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -1240,11 +1166,8 @@
       <c r="I23">
         <v>5</v>
       </c>
-      <c r="J23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>100</v>
       </c>
@@ -1255,7 +1178,7 @@
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1272,11 +1195,8 @@
       <c r="I24">
         <v>5</v>
       </c>
-      <c r="J24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>100</v>
       </c>
@@ -1287,7 +1207,7 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1304,11 +1224,8 @@
       <c r="I25">
         <v>5</v>
       </c>
-      <c r="J25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>100</v>
       </c>
@@ -1319,7 +1236,7 @@
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>4</v>
@@ -1336,11 +1253,8 @@
       <c r="I26">
         <v>5</v>
       </c>
-      <c r="J26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>100</v>
       </c>
@@ -1351,7 +1265,7 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>4</v>
@@ -1368,11 +1282,8 @@
       <c r="I27">
         <v>5</v>
       </c>
-      <c r="J27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>100</v>
       </c>
@@ -1383,7 +1294,7 @@
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <v>4</v>
@@ -1399,9 +1310,6 @@
       </c>
       <c r="I28">
         <v>5</v>
-      </c>
-      <c r="J28" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
